--- a/Data/data_IHPC_FFT.xlsx
+++ b/Data/data_IHPC_FFT.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -413,7 +481,7 @@
         <v>23489</v>
       </c>
       <c r="C2" t="n">
-        <v>1669</v>
+        <v>1412.285482287407</v>
       </c>
       <c r="D2" t="n">
         <v>139.9390258789062</v>
@@ -445,7 +513,7 @@
         <v>126887</v>
       </c>
       <c r="C3" t="n">
-        <v>4473</v>
+        <v>3432.942671537399</v>
       </c>
       <c r="D3" t="n">
         <v>171.6033325195312</v>
@@ -465,7 +533,7 @@
         <v>14895</v>
       </c>
       <c r="C4" t="n">
-        <v>1166</v>
+        <v>872.6559777259827</v>
       </c>
       <c r="D4" t="n">
         <v>113.7035751342773</v>
@@ -485,7 +553,7 @@
         <v>56773</v>
       </c>
       <c r="C5" t="n">
-        <v>2790</v>
+        <v>1880.934319734573</v>
       </c>
       <c r="D5" t="n">
         <v>195.8195953369141</v>
@@ -505,7 +573,7 @@
         <v>7701</v>
       </c>
       <c r="C6" t="n">
-        <v>570</v>
+        <v>489.9726504087448</v>
       </c>
       <c r="D6" t="n">
         <v>85.38103485107422</v>
@@ -525,7 +593,7 @@
         <v>38520</v>
       </c>
       <c r="C7" t="n">
-        <v>2210</v>
+        <v>1847.478476047516</v>
       </c>
       <c r="D7" t="n">
         <v>97.80214691162109</v>
@@ -545,7 +613,7 @@
         <v>127734</v>
       </c>
       <c r="C8" t="n">
-        <v>3329</v>
+        <v>3115.232871055603</v>
       </c>
       <c r="D8" t="n">
         <v>158.8050079345703</v>
@@ -565,7 +633,7 @@
         <v>15948</v>
       </c>
       <c r="C9" t="n">
-        <v>1108</v>
+        <v>843.7859205007553</v>
       </c>
       <c r="D9" t="n">
         <v>77.46805572509766</v>
@@ -585,7 +653,7 @@
         <v>10121</v>
       </c>
       <c r="C10" t="n">
-        <v>682</v>
+        <v>578.9259679317474</v>
       </c>
       <c r="D10" t="n">
         <v>98.10954284667969</v>
@@ -605,7 +673,7 @@
         <v>27098</v>
       </c>
       <c r="C11" t="n">
-        <v>1885</v>
+        <v>1559.044929623604</v>
       </c>
       <c r="D11" t="n">
         <v>94.80092620849609</v>
@@ -625,7 +693,7 @@
         <v>12965</v>
       </c>
       <c r="C12" t="n">
-        <v>1043</v>
+        <v>856.4549672603607</v>
       </c>
       <c r="D12" t="n">
         <v>69.87619018554688</v>
@@ -645,7 +713,7 @@
         <v>31391</v>
       </c>
       <c r="C13" t="n">
-        <v>2280</v>
+        <v>1726.140382528305</v>
       </c>
       <c r="D13" t="n">
         <v>118.4514541625977</v>
@@ -665,7 +733,7 @@
         <v>88898</v>
       </c>
       <c r="C14" t="n">
-        <v>3981</v>
+        <v>2997.989354014397</v>
       </c>
       <c r="D14" t="n">
         <v>275.7662353515625</v>
@@ -685,7 +753,7 @@
         <v>9415</v>
       </c>
       <c r="C15" t="n">
-        <v>843</v>
+        <v>690.7320977449417</v>
       </c>
       <c r="D15" t="n">
         <v>87.38130187988281</v>
@@ -705,7 +773,7 @@
         <v>36582</v>
       </c>
       <c r="C16" t="n">
-        <v>2823</v>
+        <v>2322.757694482803</v>
       </c>
       <c r="D16" t="n">
         <v>186.0671997070312</v>
@@ -725,7 +793,7 @@
         <v>25451</v>
       </c>
       <c r="C17" t="n">
-        <v>1591</v>
+        <v>1313.966721653938</v>
       </c>
       <c r="D17" t="n">
         <v>116.950065612793</v>
@@ -745,7 +813,7 @@
         <v>30999</v>
       </c>
       <c r="C18" t="n">
-        <v>2083</v>
+        <v>1710.667293906212</v>
       </c>
       <c r="D18" t="n">
         <v>103.4430923461914</v>
@@ -765,7 +833,7 @@
         <v>7917</v>
       </c>
       <c r="C19" t="n">
-        <v>678</v>
+        <v>565.6366448402405</v>
       </c>
       <c r="D19" t="n">
         <v>64.07973480224609</v>
@@ -785,7 +853,7 @@
         <v>93394</v>
       </c>
       <c r="C20" t="n">
-        <v>5085</v>
+        <v>4006.544826507568</v>
       </c>
       <c r="D20" t="n">
         <v>281.6588745117188</v>
@@ -805,7 +873,7 @@
         <v>46514</v>
       </c>
       <c r="C21" t="n">
-        <v>2524</v>
+        <v>2114.723204612732</v>
       </c>
       <c r="D21" t="n">
         <v>86.75746154785156</v>
@@ -825,7 +893,7 @@
         <v>14721</v>
       </c>
       <c r="C22" t="n">
-        <v>1300</v>
+        <v>1070.989018917084</v>
       </c>
       <c r="D22" t="n">
         <v>114.6783676147461</v>
@@ -845,7 +913,7 @@
         <v>20253</v>
       </c>
       <c r="C23" t="n">
-        <v>1421</v>
+        <v>1182.385987520218</v>
       </c>
       <c r="D23" t="n">
         <v>68.26117706298828</v>
@@ -865,7 +933,7 @@
         <v>20163</v>
       </c>
       <c r="C24" t="n">
-        <v>1285</v>
+        <v>1089.366654634476</v>
       </c>
       <c r="D24" t="n">
         <v>72.34642791748047</v>
@@ -885,7 +953,7 @@
         <v>7811</v>
       </c>
       <c r="C25" t="n">
-        <v>728</v>
+        <v>597.5777697563171</v>
       </c>
       <c r="D25" t="n">
         <v>79.05519104003906</v>
@@ -905,7 +973,7 @@
         <v>27038</v>
       </c>
       <c r="C26" t="n">
-        <v>1295</v>
+        <v>1151.089524149895</v>
       </c>
       <c r="D26" t="n">
         <v>96.73746490478516</v>
@@ -925,7 +993,7 @@
         <v>26604</v>
       </c>
       <c r="C27" t="n">
-        <v>2174</v>
+        <v>1361.322060108185</v>
       </c>
       <c r="D27" t="n">
         <v>155.4207000732422</v>
@@ -945,7 +1013,7 @@
         <v>23789</v>
       </c>
       <c r="C28" t="n">
-        <v>1136</v>
+        <v>1044.923003554344</v>
       </c>
       <c r="D28" t="n">
         <v>107.7107086181641</v>
@@ -965,7 +1033,7 @@
         <v>15958</v>
       </c>
       <c r="C29" t="n">
-        <v>703</v>
+        <v>704.9503531455994</v>
       </c>
       <c r="D29" t="n">
         <v>111.2905654907227</v>
@@ -985,7 +1053,7 @@
         <v>8198</v>
       </c>
       <c r="C30" t="n">
-        <v>579</v>
+        <v>544.2396762371063</v>
       </c>
       <c r="D30" t="n">
         <v>58.04082107543945</v>

--- a/Data/data_IHPC_FFT.xlsx
+++ b/Data/data_IHPC_FFT.xlsx
@@ -53,74 +53,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -413,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,31 +410,31 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>23489</v>
+        <v>22039</v>
       </c>
       <c r="C2" t="n">
-        <v>1412.285482287407</v>
+        <v>1024.87423312664</v>
       </c>
       <c r="D2" t="n">
-        <v>139.9390258789062</v>
+        <v>139.2386016845703</v>
       </c>
       <c r="E2" t="n">
-        <v>287.9834289550781</v>
+        <v>300.6214904785156</v>
       </c>
       <c r="F2" t="n">
-        <v>213.9612274169922</v>
+        <v>219.930046081543</v>
       </c>
       <c r="G2" t="n">
-        <v>1027852</v>
+        <v>1017218</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8586957974656472</v>
+        <v>0.8498118617334117</v>
       </c>
       <c r="I2" t="n">
-        <v>169140</v>
+        <v>179774</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1413042025343528</v>
+        <v>0.1501881382665883</v>
       </c>
     </row>
     <row r="3">
@@ -510,19 +442,19 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>126887</v>
+        <v>126056</v>
       </c>
       <c r="C3" t="n">
-        <v>3432.942671537399</v>
+        <v>3033.046141147614</v>
       </c>
       <c r="D3" t="n">
-        <v>171.6033325195312</v>
+        <v>159.9641418457031</v>
       </c>
       <c r="E3" t="n">
-        <v>1241.945434570312</v>
+        <v>1255.842895507812</v>
       </c>
       <c r="F3" t="n">
-        <v>706.7743835449219</v>
+        <v>707.9035186767578</v>
       </c>
     </row>
     <row r="4">
@@ -530,19 +462,19 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>14895</v>
+        <v>12412</v>
       </c>
       <c r="C4" t="n">
-        <v>872.6559777259827</v>
+        <v>625.7371500730515</v>
       </c>
       <c r="D4" t="n">
-        <v>113.7035751342773</v>
+        <v>85.34246826171875</v>
       </c>
       <c r="E4" t="n">
-        <v>200.4522705078125</v>
+        <v>195.1846923828125</v>
       </c>
       <c r="F4" t="n">
-        <v>157.0779228210449</v>
+        <v>140.2635803222656</v>
       </c>
     </row>
     <row r="5">
@@ -550,19 +482,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>56773</v>
+        <v>56688</v>
       </c>
       <c r="C5" t="n">
-        <v>1880.934319734573</v>
+        <v>1679.571841001511</v>
       </c>
       <c r="D5" t="n">
-        <v>195.8195953369141</v>
+        <v>182.7323913574219</v>
       </c>
       <c r="E5" t="n">
-        <v>448.7347412109375</v>
+        <v>461.6903381347656</v>
       </c>
       <c r="F5" t="n">
-        <v>322.2771682739258</v>
+        <v>322.2113647460938</v>
       </c>
     </row>
     <row r="6">
@@ -570,19 +502,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>7701</v>
+        <v>7176</v>
       </c>
       <c r="C6" t="n">
-        <v>489.9726504087448</v>
+        <v>498.1147857904434</v>
       </c>
       <c r="D6" t="n">
-        <v>85.38103485107422</v>
+        <v>82.28137969970703</v>
       </c>
       <c r="E6" t="n">
-        <v>144.3397369384766</v>
+        <v>145.2892913818359</v>
       </c>
       <c r="F6" t="n">
-        <v>114.8603858947754</v>
+        <v>113.7853355407715</v>
       </c>
     </row>
     <row r="7">
@@ -590,19 +522,19 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>38520</v>
+        <v>48226</v>
       </c>
       <c r="C7" t="n">
-        <v>1847.478476047516</v>
+        <v>1643.973861932755</v>
       </c>
       <c r="D7" t="n">
-        <v>97.80214691162109</v>
+        <v>114.1967697143555</v>
       </c>
       <c r="E7" t="n">
-        <v>682.30078125</v>
+        <v>690.1193237304688</v>
       </c>
       <c r="F7" t="n">
-        <v>390.0514640808105</v>
+        <v>402.1580467224121</v>
       </c>
     </row>
     <row r="8">
@@ -610,19 +542,19 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>127734</v>
+        <v>125333</v>
       </c>
       <c r="C8" t="n">
-        <v>3115.232871055603</v>
+        <v>3265.843042731285</v>
       </c>
       <c r="D8" t="n">
-        <v>158.8050079345703</v>
+        <v>157.0272827148438</v>
       </c>
       <c r="E8" t="n">
-        <v>1267.395141601562</v>
+        <v>1267.254760742188</v>
       </c>
       <c r="F8" t="n">
-        <v>713.1000747680664</v>
+        <v>712.1410217285156</v>
       </c>
     </row>
     <row r="9">
@@ -630,19 +562,19 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>15948</v>
+        <v>14491</v>
       </c>
       <c r="C9" t="n">
-        <v>843.7859205007553</v>
+        <v>763.903670668602</v>
       </c>
       <c r="D9" t="n">
-        <v>77.46805572509766</v>
+        <v>73.92125701904297</v>
       </c>
       <c r="E9" t="n">
-        <v>297.8793334960938</v>
+        <v>282.1365051269531</v>
       </c>
       <c r="F9" t="n">
-        <v>187.6736946105957</v>
+        <v>178.028881072998</v>
       </c>
     </row>
     <row r="10">
@@ -650,19 +582,19 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>10121</v>
+        <v>13206</v>
       </c>
       <c r="C10" t="n">
-        <v>578.9259679317474</v>
+        <v>570.3990565538406</v>
       </c>
       <c r="D10" t="n">
-        <v>98.10954284667969</v>
+        <v>103.4694442749023</v>
       </c>
       <c r="E10" t="n">
-        <v>152.2115631103516</v>
+        <v>174.3712921142578</v>
       </c>
       <c r="F10" t="n">
-        <v>125.1605529785156</v>
+        <v>138.9203681945801</v>
       </c>
     </row>
     <row r="11">
@@ -670,19 +602,19 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>27098</v>
+        <v>27303</v>
       </c>
       <c r="C11" t="n">
-        <v>1559.044929623604</v>
+        <v>1276.912898898125</v>
       </c>
       <c r="D11" t="n">
-        <v>94.80092620849609</v>
+        <v>98.98086547851562</v>
       </c>
       <c r="E11" t="n">
-        <v>455.0233764648438</v>
+        <v>433.0868530273438</v>
       </c>
       <c r="F11" t="n">
-        <v>274.9121513366699</v>
+        <v>266.0338592529297</v>
       </c>
     </row>
     <row r="12">
@@ -690,19 +622,19 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>12965</v>
+        <v>13696</v>
       </c>
       <c r="C12" t="n">
-        <v>856.4549672603607</v>
+        <v>671.8620405197144</v>
       </c>
       <c r="D12" t="n">
-        <v>69.87619018554688</v>
+        <v>71.03835296630859</v>
       </c>
       <c r="E12" t="n">
-        <v>260.612548828125</v>
+        <v>259.2073974609375</v>
       </c>
       <c r="F12" t="n">
-        <v>165.2443695068359</v>
+        <v>165.122875213623</v>
       </c>
     </row>
     <row r="13">
@@ -710,19 +642,19 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>31391</v>
+        <v>26497</v>
       </c>
       <c r="C13" t="n">
-        <v>1726.140382528305</v>
+        <v>1281.197169661522</v>
       </c>
       <c r="D13" t="n">
-        <v>118.4514541625977</v>
+        <v>91.53605651855469</v>
       </c>
       <c r="E13" t="n">
-        <v>413.8274841308594</v>
+        <v>432.3325805664062</v>
       </c>
       <c r="F13" t="n">
-        <v>266.1394691467285</v>
+        <v>261.9343185424805</v>
       </c>
     </row>
     <row r="14">
@@ -730,19 +662,19 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>88898</v>
+        <v>82067</v>
       </c>
       <c r="C14" t="n">
-        <v>2997.989354014397</v>
+        <v>2471.808552861214</v>
       </c>
       <c r="D14" t="n">
-        <v>275.7662353515625</v>
+        <v>249.6542358398438</v>
       </c>
       <c r="E14" t="n">
-        <v>557.4521484375</v>
+        <v>503.0216369628906</v>
       </c>
       <c r="F14" t="n">
-        <v>416.6091918945312</v>
+        <v>376.3379364013672</v>
       </c>
     </row>
     <row r="15">
@@ -750,19 +682,19 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>9415</v>
+        <v>10068</v>
       </c>
       <c r="C15" t="n">
-        <v>690.7320977449417</v>
+        <v>543.0264731645584</v>
       </c>
       <c r="D15" t="n">
-        <v>87.38130187988281</v>
+        <v>72.67237854003906</v>
       </c>
       <c r="E15" t="n">
-        <v>151.11572265625</v>
+        <v>186.2771606445312</v>
       </c>
       <c r="F15" t="n">
-        <v>119.2485122680664</v>
+        <v>129.4747695922852</v>
       </c>
     </row>
     <row r="16">
@@ -770,19 +702,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>36582</v>
+        <v>36293</v>
       </c>
       <c r="C16" t="n">
-        <v>2322.757694482803</v>
+        <v>1876.375882863998</v>
       </c>
       <c r="D16" t="n">
-        <v>186.0671997070312</v>
+        <v>186.3732757568359</v>
       </c>
       <c r="E16" t="n">
-        <v>385.9921569824219</v>
+        <v>480.7130126953125</v>
       </c>
       <c r="F16" t="n">
-        <v>286.0296783447266</v>
+        <v>333.5431442260742</v>
       </c>
     </row>
     <row r="17">
@@ -790,19 +722,19 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>25451</v>
+        <v>27729</v>
       </c>
       <c r="C17" t="n">
-        <v>1313.966721653938</v>
+        <v>1236.729133367538</v>
       </c>
       <c r="D17" t="n">
-        <v>116.950065612793</v>
+        <v>109.9875106811523</v>
       </c>
       <c r="E17" t="n">
-        <v>321.0515441894531</v>
+        <v>348.3432006835938</v>
       </c>
       <c r="F17" t="n">
-        <v>219.000804901123</v>
+        <v>229.165355682373</v>
       </c>
     </row>
     <row r="18">
@@ -810,19 +742,19 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>30999</v>
+        <v>30420</v>
       </c>
       <c r="C18" t="n">
-        <v>1710.667293906212</v>
+        <v>1332.510877966881</v>
       </c>
       <c r="D18" t="n">
-        <v>103.4430923461914</v>
+        <v>85.75791168212891</v>
       </c>
       <c r="E18" t="n">
-        <v>492.1207275390625</v>
+        <v>499.1834106445312</v>
       </c>
       <c r="F18" t="n">
-        <v>297.781909942627</v>
+        <v>292.4706611633301</v>
       </c>
     </row>
     <row r="19">
@@ -830,19 +762,19 @@
         <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>7917</v>
+        <v>7836</v>
       </c>
       <c r="C19" t="n">
-        <v>565.6366448402405</v>
+        <v>474.7005722522736</v>
       </c>
       <c r="D19" t="n">
-        <v>64.07973480224609</v>
+        <v>63.05145645141602</v>
       </c>
       <c r="E19" t="n">
-        <v>163.9772338867188</v>
+        <v>165.5488128662109</v>
       </c>
       <c r="F19" t="n">
-        <v>114.0284843444824</v>
+        <v>114.3001346588135</v>
       </c>
     </row>
     <row r="20">
@@ -850,19 +782,19 @@
         <v>27</v>
       </c>
       <c r="B20" t="n">
-        <v>93394</v>
+        <v>87221</v>
       </c>
       <c r="C20" t="n">
-        <v>4006.544826507568</v>
+        <v>3049.254291892052</v>
       </c>
       <c r="D20" t="n">
-        <v>281.6588745117188</v>
+        <v>266.6498107910156</v>
       </c>
       <c r="E20" t="n">
-        <v>683.6231079101562</v>
+        <v>696.7156982421875</v>
       </c>
       <c r="F20" t="n">
-        <v>482.6409912109375</v>
+        <v>481.6827545166016</v>
       </c>
     </row>
     <row r="21">
@@ -870,199 +802,219 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>46514</v>
+        <v>44752</v>
       </c>
       <c r="C21" t="n">
-        <v>2114.723204612732</v>
+        <v>1878.105892658234</v>
       </c>
       <c r="D21" t="n">
-        <v>86.75746154785156</v>
+        <v>81.59963226318359</v>
       </c>
       <c r="E21" t="n">
-        <v>835.8033447265625</v>
+        <v>823.7841796875</v>
       </c>
       <c r="F21" t="n">
-        <v>461.280403137207</v>
+        <v>452.6919059753418</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" t="n">
-        <v>14721</v>
+        <v>8597</v>
       </c>
       <c r="C22" t="n">
-        <v>1070.989018917084</v>
+        <v>583.3523740768433</v>
       </c>
       <c r="D22" t="n">
-        <v>114.6783676147461</v>
+        <v>61.63541412353516</v>
       </c>
       <c r="E22" t="n">
-        <v>222.7246704101562</v>
+        <v>215.2275695800781</v>
       </c>
       <c r="F22" t="n">
-        <v>168.7015190124512</v>
+        <v>138.4314918518066</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" t="n">
-        <v>20253</v>
+        <v>13654</v>
       </c>
       <c r="C23" t="n">
-        <v>1182.385987520218</v>
+        <v>836.4133371114731</v>
       </c>
       <c r="D23" t="n">
-        <v>68.26117706298828</v>
+        <v>115.5116424560547</v>
       </c>
       <c r="E23" t="n">
-        <v>441.7120056152344</v>
+        <v>213.4775695800781</v>
       </c>
       <c r="F23" t="n">
-        <v>254.9865913391113</v>
+        <v>164.4946060180664</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" t="n">
-        <v>20163</v>
+        <v>21802</v>
       </c>
       <c r="C24" t="n">
-        <v>1089.366654634476</v>
+        <v>1127.533175230026</v>
       </c>
       <c r="D24" t="n">
-        <v>72.34642791748047</v>
+        <v>64.94464874267578</v>
       </c>
       <c r="E24" t="n">
-        <v>372.8340454101562</v>
+        <v>522.4136352539062</v>
       </c>
       <c r="F24" t="n">
-        <v>222.5902366638184</v>
+        <v>293.679141998291</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" t="n">
-        <v>7811</v>
+        <v>22079</v>
       </c>
       <c r="C25" t="n">
-        <v>597.5777697563171</v>
+        <v>1115.567665100098</v>
       </c>
       <c r="D25" t="n">
-        <v>79.05519104003906</v>
+        <v>74.47753143310547</v>
       </c>
       <c r="E25" t="n">
-        <v>142.3079528808594</v>
+        <v>411.406005859375</v>
       </c>
       <c r="F25" t="n">
-        <v>110.6815719604492</v>
+        <v>242.9417686462402</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B26" t="n">
-        <v>27038</v>
+        <v>6506</v>
       </c>
       <c r="C26" t="n">
-        <v>1151.089524149895</v>
+        <v>439.0437180995941</v>
       </c>
       <c r="D26" t="n">
-        <v>96.73746490478516</v>
+        <v>80.14628601074219</v>
       </c>
       <c r="E26" t="n">
-        <v>432.50927734375</v>
+        <v>116.7783889770508</v>
       </c>
       <c r="F26" t="n">
-        <v>264.6233711242676</v>
+        <v>98.46233749389648</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B27" t="n">
-        <v>26604</v>
+        <v>25490</v>
       </c>
       <c r="C27" t="n">
-        <v>1361.322060108185</v>
+        <v>985.1240140199661</v>
       </c>
       <c r="D27" t="n">
-        <v>155.4207000732422</v>
+        <v>94.67805480957031</v>
       </c>
       <c r="E27" t="n">
-        <v>335.85791015625</v>
+        <v>387.0606079101562</v>
       </c>
       <c r="F27" t="n">
-        <v>245.6393051147461</v>
+        <v>240.8693313598633</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B28" t="n">
-        <v>23789</v>
+        <v>25664</v>
       </c>
       <c r="C28" t="n">
-        <v>1044.923003554344</v>
+        <v>1275.523070573807</v>
       </c>
       <c r="D28" t="n">
-        <v>107.7107086181641</v>
+        <v>156.1350708007812</v>
       </c>
       <c r="E28" t="n">
-        <v>314.014892578125</v>
+        <v>306.1528625488281</v>
       </c>
       <c r="F28" t="n">
-        <v>210.8628005981445</v>
+        <v>231.1439666748047</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>15958</v>
+        <v>21660</v>
       </c>
       <c r="C29" t="n">
-        <v>704.9503531455994</v>
+        <v>888.5727174282074</v>
       </c>
       <c r="D29" t="n">
-        <v>111.2905654907227</v>
+        <v>103.008430480957</v>
       </c>
       <c r="E29" t="n">
-        <v>213.9639739990234</v>
+        <v>303.5106811523438</v>
       </c>
       <c r="F29" t="n">
-        <v>162.627269744873</v>
+        <v>203.2595558166504</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
+        <v>54</v>
+      </c>
+      <c r="B30" t="n">
+        <v>15416</v>
+      </c>
+      <c r="C30" t="n">
+        <v>665.4528793096542</v>
+      </c>
+      <c r="D30" t="n">
+        <v>109.6535339355469</v>
+      </c>
+      <c r="E30" t="n">
+        <v>210.5438842773438</v>
+      </c>
+      <c r="F30" t="n">
+        <v>160.0987091064453</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
         <v>55</v>
       </c>
-      <c r="B30" t="n">
-        <v>8198</v>
-      </c>
-      <c r="C30" t="n">
-        <v>544.2396762371063</v>
-      </c>
-      <c r="D30" t="n">
-        <v>58.04082107543945</v>
-      </c>
-      <c r="E30" t="n">
-        <v>208.79833984375</v>
-      </c>
-      <c r="F30" t="n">
-        <v>133.4195804595947</v>
+      <c r="B31" t="n">
+        <v>7846</v>
+      </c>
+      <c r="C31" t="n">
+        <v>519.8132700920105</v>
+      </c>
+      <c r="D31" t="n">
+        <v>55.04381561279297</v>
+      </c>
+      <c r="E31" t="n">
+        <v>213.1628265380859</v>
+      </c>
+      <c r="F31" t="n">
+        <v>134.1033210754395</v>
       </c>
     </row>
   </sheetData>
